--- a/paper.xlsx
+++ b/paper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PaperSummary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FCA598-508E-41FE-986D-B21CF7A1B2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78854BA4-C5F3-4509-851C-7BAF15FCBD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{596BD0F3-B655-4D3A-B2A4-3C52E9D7FF9C}"/>
   </bookViews>
@@ -1312,11 +1312,12 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
     <col min="5" max="5" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1553,6 +1554,9 @@
       <c r="C9" t="s">
         <v>43</v>
       </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>

--- a/paper.xlsx
+++ b/paper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PaperSummary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\PaperSummary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78854BA4-C5F3-4509-851C-7BAF15FCBD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB4D621-9DB4-420A-8012-A907870F7DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{596BD0F3-B655-4D3A-B2A4-3C52E9D7FF9C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{596BD0F3-B655-4D3A-B2A4-3C52E9D7FF9C}"/>
   </bookViews>
   <sheets>
     <sheet name="paper" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="188">
   <si>
     <t>id</t>
   </si>
@@ -325,38 +325,348 @@
     <t>P-Flow</t>
   </si>
   <si>
+    <t>title</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>original</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>translations</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>journal/conference</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvTTS: Adversarial Text-to-Speech Synthesis Attack on Speaker Identification Systems</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ieeexplore.ieee.org/document/10447190 </t>
+  </si>
+  <si>
+    <t>ICASSP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Towards Universal Speech Discrete Tokens: A Case Study for ASR and TTS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10447751</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>https://proceedings.neurips.cc/paper_files/paper/2023/hash/eb0965da1d2cb3fbbbb8dbbad5fa0bfc-Abstract-Conference.html</t>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>model</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCF</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>original</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>translations</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>journal/conference</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFLOW-TTS:A RECTIFIED FLOW MODEL FOR HIGH-FIDELITY TEXT-TO-SPEECH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10447822</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-Task Learning for Front-End Text Processing in TTS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10446241</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leveraging Speech PTM, Text LLM, And Emotional TTS For Speech Emotion Recognition</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10445906</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCTTS: Discrete Diffusion Model with Contrastive Learning for Text-to-Speech Generation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10447661</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matcha-TTS: A Fast TTS Architecture with Conditional Flow Matching</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10448291</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryTTS: A Highly Expressive Text-to-Speech Dataset with Rich Textual Expressiveness Annotations</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10446023</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED-TTS: Multi-Scale Emotion Modeling Using Cross-Domain Emotion Diarization for Emotional Speech Synthesis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10446467</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spontts: Modeling and Transferring Spontaneous Style for TTS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10445828</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enhancing Multilingual TTS with Voice Conversion Based Data Augmentation and Posterior Embedding</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10448471</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convnext-TTS And Convnext-VC: Convnext-Based Fast End-To-End Sequence-To-Sequence Text-To-Speech And Voice Conversion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10446890</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transfer the Linguistic Representations from TTS to Accent Conversion with Non-Parallel Data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10447205</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PromptTTS++: Controlling Speaker Identity in Prompt-Based Text-To-Speech Using Natural Language Descriptions</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10448173</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mels-Tts : Multi-Emotion Multi-Lingual Multi-Speaker Text-To-Speech System Via Disentangled Style Tokens</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10446852</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fastmandarin: Efficient Local Modeling for Natural Mandarin Speech Synthesis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10446112</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultra-Lightweight Neural Differential DSP Vocoder for High Quality Speech Synthesis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10447948</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Unified Front-End Framework for English Text-to-Speech Synthesis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10447144</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimally-Supervised Speech Synthesis with Conditional Diffusion Model and Language Model: A Comparative Study of Semantic Coding</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10446203</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hierarchical Emotion Prediction and Control in Text-to-Speech Synthesis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10445996</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy-Based Models for Speech Synthesis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10447218</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving Language Model-Based Zero-Shot Text-to-Speech Synthesis with Multi-Scale Acoustic Prompts</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10447815</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stylespeech: Self-Supervised Style Enhancing with VQ-VAE-Based Pre-Training for Expressive Audiobook Speech Synthesis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10446352</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speak While You Think: Streaming Speech Synthesis During Text Generation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10446214</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extending Multilingual Speech Synthesis to 100+ Languages without Transcribed Data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10448074</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noise-Robust Zero-Shot Text-to-Speech Synthesis Conditioned on Self-Supervised Speech-Representation Model with Adapters</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10447809</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>An Experimental Comparison of Noise-Robust Text-To-Speech Synthesis Systems Based On Self-Supervised Representation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10446750An</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Considering Temporal Connection between Turns for Conversational Speech Synthesis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10448356</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DurIAN-E 2: Duration Informed Attention Network with Adaptive Variational Autoencoder and Adversarial Learning for Expressive Text-to-Speech Synthesis</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10448195</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collaborative Watermarking for Adversarial Speech Synthesis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10448134</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latent Filling: Latent Space Data Augmentation for Zero-Shot Speech Synthesis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10446098</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concss: Contrastive-based Context Comprehension for Dialogue-Appropriate Prosody in Conversational Speech Synthesis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10446506</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio Generation with Multiple Conditional Diffusion Model</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAAI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2308.11940</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Towards End-to-End Prosody Transfer for Expressive Speech Synthesis with Tacotron</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1803.09047</t>
+  </si>
+  <si>
+    <t>ICML</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Quality Streaming Speech Synthesis with Low, Sentence-Length-Independent Latency</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interspeech</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2111.09052</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multi-speaker Emotional Acoustic Modeling for CNN-based Speech Synthesis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8683682</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +674,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +834,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -822,7 +1141,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -949,13 +1268,19 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -981,6 +1306,7 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1309,48 +1635,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0C5A13-827F-49B1-AA3C-EA8A387F478F}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.46484375" customWidth="1"/>
+    <col min="7" max="7" width="50.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1364,7 +1692,7 @@
         <v>2017.03</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -1379,7 +1707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1408,7 +1736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1437,7 +1765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1463,7 +1791,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1492,7 +1820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1506,7 +1834,7 @@
         <v>2019</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -1521,7 +1849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1544,7 +1872,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1570,7 +1898,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1593,7 +1921,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1622,7 +1950,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1651,7 +1979,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1680,7 +2008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1709,7 +2037,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1732,7 +2060,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1761,7 +2089,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1787,7 +2115,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1807,7 +2135,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1830,7 +2158,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1841,7 +2169,7 @@
         <v>97</v>
       </c>
       <c r="D20">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -1853,7 +2181,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1864,7 +2192,7 @@
         <v>100</v>
       </c>
       <c r="D21">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E21" t="s">
         <v>17</v>
@@ -1872,12 +2200,769 @@
       <c r="F21" t="s">
         <v>18</v>
       </c>
-      <c r="G21" t="s">
-        <v>101</v>
+      <c r="G21" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22">
+        <v>2024</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23">
+        <v>2024</v>
+      </c>
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24">
+        <v>2024</v>
+      </c>
+      <c r="E24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25">
+        <v>2024</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26">
+        <v>2024</v>
+      </c>
+      <c r="E26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27">
+        <v>2024</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28">
+        <v>2024</v>
+      </c>
+      <c r="E28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29">
+        <v>2024</v>
+      </c>
+      <c r="E29" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30">
+        <v>2024</v>
+      </c>
+      <c r="E30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31">
+        <v>2024</v>
+      </c>
+      <c r="E31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32">
+        <v>2024</v>
+      </c>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33">
+        <v>2024</v>
+      </c>
+      <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34">
+        <v>2024</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35">
+        <v>2024</v>
+      </c>
+      <c r="E35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36">
+        <v>2024</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37">
+        <v>2024</v>
+      </c>
+      <c r="E37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38">
+        <v>2024</v>
+      </c>
+      <c r="E38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39">
+        <v>2024</v>
+      </c>
+      <c r="E39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40">
+        <v>2024</v>
+      </c>
+      <c r="E40" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41">
+        <v>2024</v>
+      </c>
+      <c r="E41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42">
+        <v>2024</v>
+      </c>
+      <c r="E42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43">
+        <v>2024</v>
+      </c>
+      <c r="E43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44">
+        <v>2024</v>
+      </c>
+      <c r="E44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" t="s">
+        <v>112</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45">
+        <v>2024</v>
+      </c>
+      <c r="E45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46">
+        <v>2024</v>
+      </c>
+      <c r="E46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47">
+        <v>2024</v>
+      </c>
+      <c r="E47" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48">
+        <v>2024</v>
+      </c>
+      <c r="E48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49">
+        <v>2024</v>
+      </c>
+      <c r="E49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" t="s">
+        <v>112</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50">
+        <v>2024</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" t="s">
+        <v>112</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51">
+        <v>2024</v>
+      </c>
+      <c r="E51" t="s">
+        <v>111</v>
+      </c>
+      <c r="F51" t="s">
+        <v>112</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52">
+        <v>2024</v>
+      </c>
+      <c r="E52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53">
+        <v>2024</v>
+      </c>
+      <c r="E53" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" t="s">
+        <v>112</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54">
+        <v>2024</v>
+      </c>
+      <c r="E54" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" t="s">
+        <v>178</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55">
+        <v>2018</v>
+      </c>
+      <c r="E55" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56">
+        <v>2020</v>
+      </c>
+      <c r="E56" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57">
+        <v>2019</v>
+      </c>
+      <c r="E57" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G23" r:id="rId1" xr:uid="{1559FEE5-91BC-418A-8EF3-26B9ACCABD75}"/>
+    <hyperlink ref="G21" r:id="rId2" xr:uid="{B43589B6-073D-46DC-A033-E710D8393249}"/>
+    <hyperlink ref="G24" r:id="rId3" xr:uid="{04CFFB95-EB83-4943-ABB3-47EA6C1D4FE7}"/>
+    <hyperlink ref="G25" r:id="rId4" xr:uid="{165D5DDE-E609-4071-8F0A-FF89B7EE0324}"/>
+    <hyperlink ref="G26" r:id="rId5" xr:uid="{CECBA792-5DA9-4FB6-8F3A-2C969352AE1D}"/>
+    <hyperlink ref="G27" r:id="rId6" xr:uid="{4B0371E8-8E72-40F7-853E-AA28A5BC7079}"/>
+    <hyperlink ref="G28" r:id="rId7" xr:uid="{C223EF4B-E727-4EA7-8589-EC25899F48EA}"/>
+    <hyperlink ref="G29" r:id="rId8" xr:uid="{F1737164-5788-41FE-A1C8-817A3E0FCDC4}"/>
+    <hyperlink ref="G30" r:id="rId9" xr:uid="{8E50D84F-FB2F-44C9-9D6F-6751F7F7A969}"/>
+    <hyperlink ref="G31" r:id="rId10" xr:uid="{7A937536-E4D3-4715-90CE-412F2DCFBCC7}"/>
+    <hyperlink ref="G32" r:id="rId11" xr:uid="{C73A3CB2-09DA-4E90-9382-30780B2F04F4}"/>
+    <hyperlink ref="G33" r:id="rId12" xr:uid="{09DBB0AB-B5EE-43F7-AC23-659DE3860255}"/>
+    <hyperlink ref="G34" r:id="rId13" xr:uid="{F757B1F0-4D77-4F67-8A69-219E0ECBF18D}"/>
+    <hyperlink ref="G35" r:id="rId14" xr:uid="{FA3F7098-E07A-4B60-B77E-00917CEDA070}"/>
+    <hyperlink ref="G36" r:id="rId15" xr:uid="{794F437B-AE8C-4917-AB11-D17E9A7ED49E}"/>
+    <hyperlink ref="G37" r:id="rId16" xr:uid="{F4434377-C53D-4C2D-9DBA-2CB235A986BB}"/>
+    <hyperlink ref="G38" r:id="rId17" xr:uid="{DAC209B2-D01F-41C0-B018-B91F672B97C2}"/>
+    <hyperlink ref="G39" r:id="rId18" xr:uid="{8D6ACE4A-90F4-45AF-8607-2DA476374D5D}"/>
+    <hyperlink ref="G40" r:id="rId19" xr:uid="{79F12099-60C8-41F1-8D79-DA750157DE71}"/>
+    <hyperlink ref="G41" r:id="rId20" xr:uid="{0C797225-7912-4F3D-86E1-7D2F54AD41F1}"/>
+    <hyperlink ref="G42" r:id="rId21" xr:uid="{33ED0FC6-50D1-4A0C-8066-19F1E8677B03}"/>
+    <hyperlink ref="G43" r:id="rId22" xr:uid="{21846138-FAAB-47FC-B23A-C4AE22D1D4B6}"/>
+    <hyperlink ref="G44" r:id="rId23" xr:uid="{C887A24C-74C7-45DE-A7C2-0779DF47C7CB}"/>
+    <hyperlink ref="G45" r:id="rId24" xr:uid="{24927575-2FB0-4BF2-8A59-C6A0C42523AB}"/>
+    <hyperlink ref="G46" r:id="rId25" xr:uid="{CDF6300C-3D88-4644-8E78-DA296D70F2FC}"/>
+    <hyperlink ref="G47" r:id="rId26" xr:uid="{8B83EBED-0E1C-488A-B6E4-F6312181BF16}"/>
+    <hyperlink ref="G48" r:id="rId27" xr:uid="{FDBABABE-FB3C-40F4-9809-873F9CB10B35}"/>
+    <hyperlink ref="G49" r:id="rId28" xr:uid="{755954B2-6CD7-4E22-A5CE-94E57E22419B}"/>
+    <hyperlink ref="G50" r:id="rId29" xr:uid="{EF7EEE56-30EB-49CA-B64B-D8A3C92F9087}"/>
+    <hyperlink ref="G51" r:id="rId30" xr:uid="{E7A11E35-BAE7-4AAC-9DF3-737664A2E05B}"/>
+    <hyperlink ref="G52" r:id="rId31" xr:uid="{12292941-218D-44F6-A287-F1911DF992F5}"/>
+    <hyperlink ref="G53" r:id="rId32" xr:uid="{1BF200B2-2DFB-454C-9B7C-5509243E3121}"/>
+    <hyperlink ref="G54" r:id="rId33" xr:uid="{2D45D4D1-C82B-4FB4-9CE7-19543553487F}"/>
+    <hyperlink ref="G56" r:id="rId34" xr:uid="{F857404E-1E6B-420D-82FF-7E20106B6D9E}"/>
+    <hyperlink ref="G57" r:id="rId35" xr:uid="{5C359E80-BDE2-4F86-862C-0FABB8B83039}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/paper.xlsx
+++ b/paper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\PaperSummary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB4D621-9DB4-420A-8012-A907870F7DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F889222-53CC-45CC-AD78-8C09089AF1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{596BD0F3-B655-4D3A-B2A4-3C52E9D7FF9C}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="196">
   <si>
     <t>id</t>
   </si>
@@ -667,6 +667,38 @@
   </si>
   <si>
     <t>https://ieeexplore.ieee.org/document/8683682</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simple and Effective Unsupervised Speech Translation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://aclanthology.org/2023.acl-long.602/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simple and Effective Unsupervised Speech Synthesis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interspeech</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2204.02524</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1635,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0C5A13-827F-49B1-AA3C-EA8A387F478F}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2922,6 +2954,46 @@
       </c>
       <c r="G57" s="1" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58">
+        <v>2023</v>
+      </c>
+      <c r="E58" t="s">
+        <v>189</v>
+      </c>
+      <c r="F58" t="s">
+        <v>190</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59">
+        <v>2022</v>
+      </c>
+      <c r="E59" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2962,6 +3034,8 @@
     <hyperlink ref="G54" r:id="rId33" xr:uid="{2D45D4D1-C82B-4FB4-9CE7-19543553487F}"/>
     <hyperlink ref="G56" r:id="rId34" xr:uid="{F857404E-1E6B-420D-82FF-7E20106B6D9E}"/>
     <hyperlink ref="G57" r:id="rId35" xr:uid="{5C359E80-BDE2-4F86-862C-0FABB8B83039}"/>
+    <hyperlink ref="G58" r:id="rId36" xr:uid="{AEFB6E42-FF44-48EE-BC86-08C1ECC59115}"/>
+    <hyperlink ref="G59" r:id="rId37" xr:uid="{BFE27C89-5670-4B99-B8EF-3D12F1895311}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/paper.xlsx
+++ b/paper.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\PaperSummary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\PaperSummary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F889222-53CC-45CC-AD78-8C09089AF1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DB9D04-A968-422C-A780-4E292D325738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{596BD0F3-B655-4D3A-B2A4-3C52E9D7FF9C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{596BD0F3-B655-4D3A-B2A4-3C52E9D7FF9C}"/>
   </bookViews>
   <sheets>
     <sheet name="paper" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="211">
   <si>
     <t>id</t>
   </si>
@@ -699,6 +700,66 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/2204.02524</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TASLP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>interspeech</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JASA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>期刊</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>级别</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICME</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIPS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>IJCAI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPAMI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSLHR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SPL </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSL</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1669,19 +1730,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0C5A13-827F-49B1-AA3C-EA8A387F478F}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.46484375" customWidth="1"/>
-    <col min="7" max="7" width="50.46484375" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1710,7 +1771,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1739,7 +1800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1768,7 +1829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1797,7 +1858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1823,7 +1884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1852,7 +1913,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1881,7 +1942,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1904,7 +1965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1930,7 +1991,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1953,7 +2014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1982,7 +2043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2011,7 +2072,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2040,7 +2101,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2069,7 +2130,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2092,7 +2153,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2121,7 +2182,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2147,7 +2208,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2167,7 +2228,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2190,7 +2251,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2213,7 +2274,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2236,7 +2297,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2256,7 +2317,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2276,7 +2337,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2296,7 +2357,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2316,7 +2377,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2336,7 +2397,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2356,7 +2417,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2376,7 +2437,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2396,7 +2457,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2416,7 +2477,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2436,7 +2497,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2456,7 +2517,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2476,7 +2537,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2496,7 +2557,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2516,7 +2577,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2536,7 +2597,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2556,7 +2617,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2576,7 +2637,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2596,7 +2657,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2616,7 +2677,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2636,7 +2697,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2656,7 +2717,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2676,7 +2737,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2696,7 +2757,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2716,7 +2777,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2736,7 +2797,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2756,7 +2817,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2776,7 +2837,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2796,7 +2857,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2816,7 +2877,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2836,7 +2897,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2856,7 +2917,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2876,7 +2937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2896,7 +2957,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2916,7 +2977,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2936,7 +2997,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2956,7 +3017,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2976,7 +3037,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3039,4 +3100,230 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D04A31C-F282-4E31-B474-96F15B9F49D8}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>